--- a/medicine/Sexualité et sexologie/Riverstone/Riverstone.xlsx
+++ b/medicine/Sexualité et sexologie/Riverstone/Riverstone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Peter Riverstone, de son vrai nom Bernard Kamenoff, né à Clamart dans les Hauts-de-Seine le 14 novembre 1947, est un auteur de bandes dessinées français d'ascendance bulgare. Il travaille également sous d'autres pseudonymes : comput_lab, Peter, Firestone, 023014, Bandryke, Caumandre, Molossier, José Pierre...
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il passe son enfance et fait ses études secondaires en région parisienne. Il réalises ses études universitaires dans la série Beaux Arts UP8 architecture à Paris puis à la Faculté de Vincennes de 1969 à 1971.
 C’est en 1980 qu’il publie ses premières publications aux éditions du Square (Georges Bernier) dans Charlie Mensuel, le récit des Aventures de L'aspérouse. Toujours dans Charlie Mensuel avec Mandryka comme rédacteur en chef, il publie :
 1981 : Les aventures de Martin Verlass.
-de 1982 à 1983 : Alice avec Mandryka (participation aux textes)[1].
+de 1982 à 1983 : Alice avec Mandryka (participation aux textes).
 de 1983 et 1984 : Annah O avec Patrice Caumont et Nikita Mandryka.
 Il travaille aussi pour la presse de bandes dessinées érotiques et réalise :
 en 1982 dans les journaux Sexbulles, Bédéadult' (éditions CAP, IPM...) : Gomorrhe, Fugue infinie, Île des perversions avec le scénariste Henef, etc.
@@ -550,27 +564,98 @@
           <t>Œuvres publiées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste sommaire des travaux BD et illustrations
-Albums
-Gomorrhe, 1983, album, CAP
-Alice[2], 1985, album, scénario de Nikita Mandryka d'après les personnages de Lewis Carroll, Dargaud
-Thamara &amp; Juda - From the Bible Genesis chapter 38 [3], 1989, album, CAP
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste sommaire des travaux BD et illustrations
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Riverstone</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Riverstone</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres publiées</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Gomorrhe, 1983, album, CAP
+Alice, 1985, album, scénario de Nikita Mandryka d'après les personnages de Lewis Carroll, Dargaud
+Thamara &amp; Juda - From the Bible Genesis chapter 38 , 1989, album, CAP
 Nagarya - Aux premiers temps, 1991, album, CAP
 La fugue Infinie, 1993, CAP
-Judith et Holopherne[4], 1993, album, CAP
-Nagarya - continent perdu[5], 1997, album, CAP
-Chloé Trop plein d'écumes,  1998, éditions Jean Carton[6]
+Judith et Holopherne, 1993, album, CAP
+Nagarya - continent perdu, 1997, album, CAP
+Chloé Trop plein d'écumes,  1998, éditions Jean Carton
 Chloé Trop plein d'écumes, 2003, réédition revisitée, IPM
 Evy en ruine, (3D &amp; BD), 2006, album, éditions Lacupula (Barcelone)
-Evy en ruine[7], (3D &amp; BD), 2006, album, éditions Sybaris, LVP
+Evy en ruine, (3D &amp; BD), 2006, album, éditions Sybaris, LVP
 Nagarya (intégrale), 2007, édition collector à tirage limité à 100 exemplaires (numérotés de 1 à 100) en format A3, accompagné d'un dessin original de l'auteur (2007), AAR
 Nagarya (intégrale), 2009, édition en version grand public (suppression de scènes hard et de nombreux dialogues), AAR
-Nagarya (intégrale), 2016 (réédition des 2 albums parus en 1991 et 1997 en un seul album de 144 pages). Cette réédition est revisitée et augmentée de quelques pages[8],[9], Dynamite édition
-Chloé, trop plein d’écumes, 2018 (réédition revisitée et augmentée)[10],[11], financement participatif [12], Dynamite édition
-Revues
-Exploits de l’Aspérouse, 1980, Charlie mensuel
+Nagarya (intégrale), 2016 (réédition des 2 albums parus en 1991 et 1997 en un seul album de 144 pages). Cette réédition est revisitée et augmentée de quelques pages Dynamite édition
+Chloé, trop plein d’écumes, 2018 (réédition revisitée et augmentée) financement participatif , Dynamite édition</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Riverstone</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Riverstone</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres publiées</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Revues</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Exploits de l’Aspérouse, 1980, Charlie mensuel
 Martin Verlass, 1981 à 1982, Charlie mensuel
 De Charybde en Scylla, 1982, Charlie mensuel
 Alice, 1982 à 1983, Charlie mensuel
